--- a/Registros/Control.xlsx
+++ b/Registros/Control.xlsx
@@ -430,7 +430,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -462,7 +462,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Registros/Control.xlsx
+++ b/Registros/Control.xlsx
@@ -430,7 +430,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Registros/Control.xlsx
+++ b/Registros/Control.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="15375" windowHeight="7875"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13605" windowHeight="7230"/>
   </bookViews>
   <sheets>
     <sheet name="grupos" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>Fecha</t>
   </si>
@@ -430,7 +430,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -462,7 +462,10 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -476,7 +479,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -501,6 +504,9 @@
       <c r="A3" t="s">
         <v>6</v>
       </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2">

--- a/Registros/Control.xlsx
+++ b/Registros/Control.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\annel\Yoselin\USAC\IA\Laboratorio\Practica1\IA-Robot\Registros\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13605" windowHeight="7230"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13605" windowHeight="7230" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="grupos" sheetId="1" r:id="rId1"/>
@@ -20,52 +20,52 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+    <x:ext xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
-    </ext>
+    </x:ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+  <si>
+    <t>Grupo</t>
+  </si>
+  <si>
+    <t>Cantidad</t>
+  </si>
   <si>
     <t>Fecha</t>
   </si>
   <si>
-    <t>Grupo</t>
-  </si>
-  <si>
     <t>Grupo1</t>
   </si>
   <si>
-    <t>Cantidad</t>
+    <t>3/22/2020</t>
   </si>
   <si>
     <t>Grupo2</t>
   </si>
   <si>
-    <t>3/22/2020</t>
-  </si>
-  <si>
     <t>4/15/2020</t>
   </si>
   <si>
     <t>Uso</t>
   </si>
   <si>
+    <t>x</t>
+  </si>
+  <si>
     <t>6/13/2020</t>
   </si>
   <si>
     <t>8/29/2020</t>
-  </si>
-  <si>
-    <t>x</t>
   </si>
 </sst>
 </file>
@@ -109,10 +109,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -429,44 +430,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
+      <c r="B3" s="1">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -478,49 +477,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>44170</v>
+      </c>
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>44170</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Registros/Control.xlsx
+++ b/Registros/Control.xlsx
@@ -1,134 +1,171 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <x:workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\annel\Yoselin\USAC\IA\Laboratorio\Practica1\IA-Robot\Registros\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ruben\Documents\UiPath\IA-Robot\Registros\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13605" windowHeight="7230" activeTab="1"/>
-  </bookViews>
-  <sheets>
-    <sheet name="grupos" sheetId="1" r:id="rId1"/>
-    <sheet name="fechas" sheetId="2" r:id="rId2"/>
-  </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2309AAE2-CBB5-45B7-B201-57487EE4EA14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <x:bookViews>
+    <x:workbookView xWindow="390" yWindow="390" windowWidth="15375" windowHeight="7875" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </x:bookViews>
+  <x:sheets>
+    <x:sheet name="grupos" sheetId="1" r:id="rId1"/>
+    <x:sheet name="fechas" sheetId="2" r:id="rId2"/>
+  </x:sheets>
+  <x:definedNames/>
+  <x:calcPr calcId="162913"/>
+  <x:extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <x:ext xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </x:ext>
-  </extLst>
-</workbook>
+  </x:extLst>
+</x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
-  <si>
-    <t>Grupo</t>
-  </si>
-  <si>
-    <t>Cantidad</t>
-  </si>
-  <si>
-    <t>Fecha</t>
-  </si>
-  <si>
-    <t>Grupo1</t>
-  </si>
-  <si>
-    <t>3/22/2020</t>
-  </si>
-  <si>
-    <t>Grupo2</t>
-  </si>
-  <si>
-    <t>4/15/2020</t>
-  </si>
-  <si>
-    <t>Uso</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>6/13/2020</t>
-  </si>
-  <si>
-    <t>8/29/2020</t>
-  </si>
-</sst>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <x:si>
+    <x:t>Grupo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cantidad</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fecha</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Grupo1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3/22/2020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Uso</x:t>
+  </x:si>
+  <x:si>
+    <x:t>x</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4/15/2020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6/13/2020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8/29/2020</x:t>
+  </x:si>
+</x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-  </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
-  </fills>
-  <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-  </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-  </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-  </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2 xr">
+  <x:numFmts count="1">
+    <x:numFmt numFmtId="0" formatCode=""/>
+  </x:numFmts>
+  <x:fonts count="4" x14ac:knownFonts="1">
+    <x:font>
+      <x:sz val="11"/>
+      <x:color theme="1"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:b/>
+      <x:sz val="11"/>
+      <x:color theme="1"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:u/>
+      <x:sz val="11"/>
+      <x:color theme="1"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
+  </x:fonts>
+  <x:fills count="2">
+    <x:fill>
+      <x:patternFill patternType="none"/>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="gray125"/>
+    </x:fill>
+  </x:fills>
+  <x:borders count="1">
+    <x:border>
+      <x:left/>
+      <x:right/>
+      <x:top/>
+      <x:bottom/>
+      <x:diagonal/>
+    </x:border>
+  </x:borders>
+  <x:cellStyleXfs count="5">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+  </x:cellStyleXfs>
+  <x:cellXfs count="9">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+  </x:cellXfs>
+  <x:cellStyles count="1">
+    <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </x:cellStyles>
+  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <x:extLst>
+    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+    </x:ext>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
       <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
-</styleSheet>
+    </x:ext>
+  </x:extLst>
+</x:styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -427,101 +464,110 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1">
-        <v>5</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:C3"/>
+  <x:sheetViews>
+    <x:sheetView tabSelected="1" workbookViewId="0">
+      <x:selection activeCell="B2" sqref="B2 B2:B2"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <x:c r="A1" s="7" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C1" s="7" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <x:c r="A2" s="5" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B2" s="5" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C2" s="6" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <x:c r="A3" s="5" t="s"/>
+      <x:c r="B3" s="5" t="s"/>
+      <x:c r="C3" s="5" t="s"/>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="portrait" blackAndWhite="0" draft="0" cellComments="none" errors="displayed" r:id="rId1"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>44170</v>
-      </c>
-      <c r="B4" s="1"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0100-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:B6"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0">
+      <x:selection activeCell="B2" sqref="B2 B2:B2"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <x:c r="A1" s="5" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B1" s="5" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <x:c r="A2" s="5" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B2" s="8" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <x:c r="A3" s="5" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B3" s="8" t="s"/>
+    </x:row>
+    <x:row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <x:c r="A4" s="6">
+        <x:v>44170</x:v>
+      </x:c>
+      <x:c r="B4" s="8" t="s"/>
+    </x:row>
+    <x:row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <x:c r="A5" s="5" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <x:c r="A6" s="5" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
 </file>
--- a/Registros/Control.xlsx
+++ b/Registros/Control.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ruben\Documents\UiPath\IA-Robot\Registros\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2309AAE2-CBB5-45B7-B201-57487EE4EA14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{547F9D46-F640-4F6B-8FA5-4E6E2D03596D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
     <x:workbookView xWindow="390" yWindow="390" windowWidth="15375" windowHeight="7875" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
